--- a/Dados/lista_enderecos_araujo/lista_enderecos_completa.xlsx
+++ b/Dados/lista_enderecos_araujo/lista_enderecos_completa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius Fernandes\Documents\GitHub\TCC\Dados\lista_enderecos_araujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5545E908-BD45-4B29-99A3-21310C7671B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F09B28-2820-4F7E-A42D-49E1DB3ADE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1629,10 +1629,10 @@
     <t>-19.929672441758687, -43.94397765301486</t>
   </si>
   <si>
-    <t>-19.974380605299743, -43.94374106324086</t>
-  </si>
-  <si>
     <t>-19.927839296674023, -43.949675039261635</t>
+  </si>
+  <si>
+    <t>-19.975442146424157, -43.94605348191767</t>
   </si>
 </sst>
 </file>
@@ -1998,15 +1998,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>503</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>52</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>53</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>55</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>56</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>57</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>58</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>61</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>62</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>64</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>65</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>69</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>70</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>71</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>73</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>74</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>75</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>76</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>79</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>80</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>82</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>83</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>85</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>87</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>90</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>91</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>92</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>94</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>95</v>
       </c>
@@ -2864,7 +2866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>96</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>97</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>98</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>99</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>100</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>101</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>102</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>104</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>105</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>106</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>107</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>111</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>112</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>114</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>115</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>116</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>117</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>118</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>119</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>120</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>121</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>122</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>123</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>125</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>126</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>128</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>130</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>132</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>133</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>134</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>135</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>136</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>137</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>139</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>140</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>141</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>142</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>143</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>144</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>145</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>146</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>147</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>148</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>149</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>151</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>152</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>154</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>158</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>160</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>161</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>164</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>165</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>166</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>169</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>171</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>172</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>175</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>177</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>179</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>181</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>182</v>
       </c>
@@ -3535,7 +3537,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>183</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>188</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>189</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>191</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>192</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>193</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>196</v>
       </c>
@@ -3609,10 +3611,10 @@
         <v>378</v>
       </c>
       <c r="C146" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>198</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>199</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>202</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>205</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>206</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>208</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>209</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>214</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>218</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>219</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>221</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>231</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>232</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>239</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>240</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>242</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>249</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>253</v>
       </c>
@@ -3807,10 +3809,10 @@
         <v>482</v>
       </c>
       <c r="C164" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>254</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>255</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>256</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>257</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>258</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>259</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>260</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>261</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>262</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>263</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>266</v>
       </c>
@@ -3941,18 +3943,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194EC2A5-D901-4BC8-8899-5D50161F408A}">
   <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>503</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4288,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4330,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4568,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4694,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4764,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4778,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5156,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6718,13 +6720,13 @@
         <v>378</v>
       </c>
       <c r="C198" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6962,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6976,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7130,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7172,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7186,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7368,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7424,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7516,13 +7518,13 @@
         <v>482</v>
       </c>
       <c r="C255" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7578,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7662,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7676,7 +7678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7690,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>

--- a/Dados/lista_enderecos_araujo/lista_enderecos_completa.xlsx
+++ b/Dados/lista_enderecos_araujo/lista_enderecos_completa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius Fernandes\Documents\GitHub\TCC\Dados\lista_enderecos_araujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F09B28-2820-4F7E-A42D-49E1DB3ADE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C93367-64FA-4221-AFC5-00023BBE1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="537">
   <si>
     <t>enderecos</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Rodovia MG 05, 3252, Novo Alvorada</t>
   </si>
   <si>
-    <t>sabara</t>
-  </si>
-  <si>
     <t>Rua Padre Pedro Pinto, 1660, Venda Nova</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Rua Ari Teixeira da Costa, 72, Centro</t>
   </si>
   <si>
-    <t>Ribeirão das Neves</t>
-  </si>
-  <si>
     <t>Avenida Brasília, 2202, São Benedito</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>Rua Barão do Rio Branco, 18, Centro</t>
   </si>
   <si>
-    <t>lagoa santa</t>
-  </si>
-  <si>
     <t>Avenida Severino Ballesteros Rodrigues, 850, Cabral</t>
   </si>
   <si>
@@ -806,9 +797,6 @@
     <t>Avenida Minas Gerais, 771, São Sebastião</t>
   </si>
   <si>
-    <t>Matozinhos</t>
-  </si>
-  <si>
     <t>Rua Queluzita, 12, Fernão Dias</t>
   </si>
   <si>
@@ -1013,15 +1001,9 @@
     <t>Rua Vereador Jesus Martins, 139, Centro</t>
   </si>
   <si>
-    <t>nova serrana</t>
-  </si>
-  <si>
     <t>Rua do Comércio, 145, Centro</t>
   </si>
   <si>
-    <t>Divinópolis</t>
-  </si>
-  <si>
     <t>Rua Doutor Álvaro Camargos, 2620, Santa Mônica</t>
   </si>
   <si>
@@ -1052,9 +1034,6 @@
     <t>Praça Raul Soares, 125, Centro</t>
   </si>
   <si>
-    <t>verificar sao joao del rei</t>
-  </si>
-  <si>
     <t>Rua Viçosa, 510, Santo Antônio</t>
   </si>
   <si>
@@ -1064,9 +1043,6 @@
     <t>Avenida Dom Pedro II, 98, Centro</t>
   </si>
   <si>
-    <t>curvelo</t>
-  </si>
-  <si>
     <t>Rua Patagônia, 577, Sion</t>
   </si>
   <si>
@@ -1094,9 +1070,6 @@
     <t>Rodovia BR 356, 20, Santa Lúcia</t>
   </si>
   <si>
-    <t>verificar</t>
-  </si>
-  <si>
     <t>Avenida Presidente Tancredo Neves, 2208, Paquetá</t>
   </si>
   <si>
@@ -1112,9 +1085,6 @@
     <t>Avenida Presidente Itamar Franco, 2080, São Mateus</t>
   </si>
   <si>
-    <t>Juiz de Fora</t>
-  </si>
-  <si>
     <t>Rua Quinze de Novembro, 7, Centro</t>
   </si>
   <si>
@@ -1127,9 +1097,6 @@
     <t>Avenida Primeiro de Junho, 577, Centro</t>
   </si>
   <si>
-    <t xml:space="preserve">Divinópolis </t>
-  </si>
-  <si>
     <t>Rua Santa Maria, 414, Pedra Azul</t>
   </si>
   <si>
@@ -1178,10 +1145,6 @@
     <t>Avenida Barão do Rio Branco, 3217, Allto dos Passos</t>
   </si>
   <si>
-    <t xml:space="preserve">Juiz de Fora - MG
-</t>
-  </si>
-  <si>
     <t>Avenida Ressaca, 260, Padre Eustáquio</t>
   </si>
   <si>
@@ -1236,9 +1199,6 @@
     <t>Rua Dionizio Gomes, 175, Vale Verde</t>
   </si>
   <si>
-    <t>Ribeirão das Neve</t>
-  </si>
-  <si>
     <t>Rua Cuiabá, 860, Prado</t>
   </si>
   <si>
@@ -1266,9 +1226,6 @@
     <t>Rua Conde Dolabela Portela, 640, Várzea</t>
   </si>
   <si>
-    <t>Lagoa Santa</t>
-  </si>
-  <si>
     <t>Praça Mario Del Giudice, 451, Centro</t>
   </si>
   <si>
@@ -1401,9 +1358,6 @@
     <t>Avenida Deputado Carlos Luz, 142, Centro</t>
   </si>
   <si>
-    <t>tres coracoes</t>
-  </si>
-  <si>
     <t>Rua Padre Pedro Pinto, 6630, Maria Helena</t>
   </si>
   <si>
@@ -1470,9 +1424,6 @@
     <t>AV COMENDADOR JACINTO SOARES DE SOUZA, 1129, CENTRO</t>
   </si>
   <si>
-    <t>uba</t>
-  </si>
-  <si>
     <t>AV MARTE, 300, JARDIM RIACHO DAS PEDRAS</t>
   </si>
   <si>
@@ -1633,6 +1584,69 @@
   </si>
   <si>
     <t>-19.975442146424157, -43.94605348191767</t>
+  </si>
+  <si>
+    <t>-19.869337366934214, -43.89376717316056</t>
+  </si>
+  <si>
+    <t>-19.767289090062278, -44.08709113083337</t>
+  </si>
+  <si>
+    <t>-19.627648009282193, -43.892712409512974</t>
+  </si>
+  <si>
+    <t>-19.891097952859496, -43.81167382194011</t>
+  </si>
+  <si>
+    <t>-19.56507155207444, -44.07855424263008</t>
+  </si>
+  <si>
+    <t>-19.87882046023774, -44.98620207844727</t>
+  </si>
+  <si>
+    <t>-20.1404260318867, -44.883856358080536</t>
+  </si>
+  <si>
+    <t>-21.130957129058526, -44.25445987446077</t>
+  </si>
+  <si>
+    <t>-18.756006484540688, -44.42897177319812</t>
+  </si>
+  <si>
+    <t>-21.77214631180294, -43.35377142539317</t>
+  </si>
+  <si>
+    <t>-20.502451509403244, -43.85764202870272</t>
+  </si>
+  <si>
+    <t>-20.1438884040382, -44.887501496391884</t>
+  </si>
+  <si>
+    <t>-21.769982409359905, -43.34725421217266</t>
+  </si>
+  <si>
+    <t>-21.78295379463799, -43.365044785040965</t>
+  </si>
+  <si>
+    <t>-19.770181236810675, -44.12923265528477</t>
+  </si>
+  <si>
+    <t>-19.631590928830235, -43.88709021750067</t>
+  </si>
+  <si>
+    <t>-21.733689832077662, -43.394655869757855</t>
+  </si>
+  <si>
+    <t>-20.139611414651846, -44.89086514925305</t>
+  </si>
+  <si>
+    <t>-21.694048127995533, -45.25816122669685</t>
+  </si>
+  <si>
+    <t>-21.117437572762864, -42.94778887545184</t>
+  </si>
+  <si>
+    <t>-19.88505161710933, -43.80141141838166</t>
   </si>
 </sst>
 </file>
@@ -1998,19 +2012,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2019,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2030,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2041,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2052,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2063,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2074,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2129,7 +2143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2140,7 +2154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2162,7 +2176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2173,7 +2187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2195,7 +2209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2239,7 +2253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2250,7 +2264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2283,7 +2297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2294,7 +2308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2305,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2316,7 +2330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2327,7 +2341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2338,7 +2352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2349,7 +2363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2382,7 +2396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2404,7 +2418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2415,7 +2429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2426,7 +2440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -2437,7 +2451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -2459,7 +2473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -2492,7 +2506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -2503,7 +2517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -2525,7 +2539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>52</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>53</v>
       </c>
@@ -2558,7 +2572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -2569,7 +2583,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>55</v>
       </c>
@@ -2577,10 +2591,10 @@
         <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>56</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>57</v>
       </c>
@@ -2602,7 +2616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>58</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>61</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>62</v>
       </c>
@@ -2646,1291 +2660,1291 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>64</v>
       </c>
       <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
         <v>125</v>
       </c>
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>65</v>
       </c>
       <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>69</v>
       </c>
       <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>70</v>
       </c>
       <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
         <v>136</v>
       </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>71</v>
       </c>
       <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>73</v>
       </c>
       <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
         <v>142</v>
       </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>74</v>
       </c>
       <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>75</v>
       </c>
       <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>76</v>
       </c>
       <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
         <v>148</v>
       </c>
-      <c r="C67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>130</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C114" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C126" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C127" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>165</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>175</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C135" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>179</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C138" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>182</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>188</v>
       </c>
       <c r="B141" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>189</v>
       </c>
       <c r="B142" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C143" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C144" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>196</v>
       </c>
       <c r="B146" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C146" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C147" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C149" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C150" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C151" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C152" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>209</v>
       </c>
       <c r="B153" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>218</v>
       </c>
       <c r="B155" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C155" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>219</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C156" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>221</v>
       </c>
       <c r="B157" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>231</v>
       </c>
       <c r="B158" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C158" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>239</v>
       </c>
       <c r="B160" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C160" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>240</v>
       </c>
       <c r="B161" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>242</v>
       </c>
       <c r="B162" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>253</v>
       </c>
       <c r="B164" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C164" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>254</v>
       </c>
       <c r="B165" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C165" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>255</v>
       </c>
       <c r="B166" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C166" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>256</v>
       </c>
       <c r="B167" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>257</v>
       </c>
       <c r="B168" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>258</v>
       </c>
       <c r="B169" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>259</v>
       </c>
       <c r="B170" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>260</v>
       </c>
       <c r="B171" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C171" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>261</v>
       </c>
       <c r="B172" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C172" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>262</v>
       </c>
       <c r="B173" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C173" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>263</v>
       </c>
       <c r="B174" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C174" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C175" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3943,20 +3957,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194EC2A5-D901-4BC8-8899-5D50161F408A}">
   <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3965,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3982,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3996,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4024,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4038,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4046,13 +4060,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4066,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4080,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4094,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4102,13 +4116,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4136,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4150,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4192,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4206,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4220,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4234,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4248,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4262,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4276,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4304,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4332,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4346,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4360,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4374,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4388,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4402,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4416,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4430,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4444,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4472,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4486,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4494,13 +4508,13 @@
         <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4514,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4528,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4536,13 +4550,13 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4570,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4584,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4598,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4612,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4640,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4654,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4668,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4696,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4710,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4724,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4738,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4746,13 +4760,13 @@
         <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4766,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4780,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4808,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4822,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4836,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4858,2849 +4872,2849 @@
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>516</v>
       </c>
       <c r="D65" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
         <v>125</v>
       </c>
-      <c r="C66" t="s">
-        <v>126</v>
-      </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
         <v>127</v>
       </c>
-      <c r="C67" t="s">
-        <v>128</v>
-      </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
         <v>130</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
         <v>132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>133</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
         <v>134</v>
       </c>
-      <c r="C71" t="s">
-        <v>135</v>
-      </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
         <v>136</v>
       </c>
-      <c r="C72" t="s">
-        <v>137</v>
-      </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
         <v>138</v>
       </c>
-      <c r="C73" t="s">
-        <v>139</v>
-      </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
         <v>140</v>
-      </c>
-      <c r="C74" t="s">
-        <v>141</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
         <v>142</v>
       </c>
-      <c r="C75" t="s">
-        <v>143</v>
-      </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="s">
         <v>146</v>
       </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
         <v>148</v>
       </c>
-      <c r="C78" t="s">
-        <v>149</v>
-      </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>517</v>
       </c>
       <c r="D79" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>518</v>
       </c>
       <c r="D112" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>124</v>
+        <v>519</v>
       </c>
       <c r="D126" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C133" t="s">
-        <v>256</v>
+        <v>520</v>
       </c>
       <c r="D133" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C137" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C139" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C141" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C153" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C156" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C158" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>325</v>
+        <v>521</v>
       </c>
       <c r="D169" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C170" t="s">
-        <v>327</v>
+        <v>522</v>
       </c>
       <c r="D170" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C171" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C173" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C174" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C175" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C176" t="s">
-        <v>338</v>
+        <v>523</v>
       </c>
       <c r="D176" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C177" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>524</v>
       </c>
       <c r="D178" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C179" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C180" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C181" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C182" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C183" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C185" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C186" t="s">
-        <v>358</v>
+        <v>525</v>
       </c>
       <c r="D186" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C187" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C188" t="s">
-        <v>352</v>
+        <v>526</v>
       </c>
       <c r="D188" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C189" t="s">
-        <v>363</v>
+        <v>527</v>
       </c>
       <c r="D189" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C190" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C191" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C192" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C193" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C194" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C195" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C196" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C197" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C198" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="D199" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C200" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C201" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C203" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="D203" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C204" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C207" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C208" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C209" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="D209" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C210" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C211" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C212" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C213" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C214" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="D214" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C215" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C216" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C217" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C218" t="s">
-        <v>358</v>
+        <v>532</v>
       </c>
       <c r="D218" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C219" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C220" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C221" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C222" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C223" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C224" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C225" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C226" t="s">
-        <v>327</v>
+        <v>533</v>
       </c>
       <c r="D226" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C227" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C228" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C229" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C230" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C231" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C232" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C233" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C234" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C235" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C236" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C237" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C238" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C239" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C240" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="D240" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C241" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C242" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C244" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C245" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C246" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C247" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C248" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C249" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D249" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C250" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C251" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C252" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="D252" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C253" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C254" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C255" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C256" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C257" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C258" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C259" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C260" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D260" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C261" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D261" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C262" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C263" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D263" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C264" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C265" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D265" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C266" t="s">
-        <v>352</v>
+        <v>536</v>
       </c>
       <c r="D266" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C267" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C268" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
